--- a/Excel-Practice/03-Fomulas-and-Functions/01-Building-Basic-Formulas/Ex-6-1-Practice-Formulas.xlsx
+++ b/Excel-Practice/03-Fomulas-and-Functions/01-Building-Basic-Formulas/Ex-6-1-Practice-Formulas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Studying-02\Books\24-Excel-May-02-2023\Excel-Tutorials\Excel-Practice\03-Fomulas-and-Functions\01-Building-Basic-Formulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C7B31F-FA6A-44CA-ACF9-285EE818DB72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7A4DC5-70DB-4A77-9294-DAF74B7CB88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{C8C08DC8-920A-4D33-8D46-E4651D44CBB8}"/>
   </bookViews>
@@ -40,13 +40,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Exercise 6-2: Building Comparative Formulas</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -74,9 +86,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,82 +406,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9748F39B-67F6-4D83-9FE1-B4959B0EE3B8}">
-  <dimension ref="A2:C8"/>
+  <dimension ref="A2:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>Source</f>
-        <v>128</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>34</v>
       </c>
       <c r="C4">
         <f>A4+B4</f>
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="D4" t="b">
+        <f>A4=B4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>A4+5</f>
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>47.5</v>
       </c>
       <c r="C5">
         <f>A5-B5</f>
-        <v>85.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-8.5</v>
+      </c>
+      <c r="D5" t="b">
+        <f>A5&gt;B5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ref="A6:A8" si="0">A5+5</f>
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>2.2000000000000002</v>
       </c>
       <c r="C6">
         <f>A6/B6</f>
-        <v>62.72727272727272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="D6" t="b">
+        <f>A6&lt;B6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
-        <v>143</v>
+        <v>49</v>
       </c>
       <c r="B7" s="1">
         <v>0.1</v>
       </c>
       <c r="C7">
         <f>A7*B7</f>
-        <v>14.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8">
         <f>A8^B8</f>
-        <v>3241792</v>
+        <v>157464</v>
+      </c>
+      <c r="D8" t="b">
+        <f>A8&lt;&gt;B8</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
